--- a/edges.xlsx
+++ b/edges.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithim\Project_3_Dijikstra\DijikstraGui\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D79E0-BA29-4C7E-A822-64CB892166E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Edges" r:id="rId3" sheetId="1"/>
+    <sheet name="Edges" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -734,11 +742,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -750,7 +757,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -768,2655 +775,2969 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C256"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="A247" sqref="A247"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>239.0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>239</v>
+      </c>
+      <c r="B1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>42.5</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>17.05</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>-61.8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>18.25</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>-63.17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>12.25</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>-68.75</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-12.5</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>18.5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>-90.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>-90</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>-34.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-64.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13">
+        <v>-34</v>
+      </c>
+      <c r="C13">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-14.33</v>
       </c>
-      <c r="C14" t="n">
-        <v>-170.0</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="C14">
+        <v>-170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>47.33</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>13.33</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>-27.0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>133.0</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16">
+        <v>-27</v>
+      </c>
+      <c r="C16">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>12.5</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>-69.97</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>40.5</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>47.5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="B19">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>13.17</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>-59.53</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="C21" t="n">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="B21">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>50.83</v>
       </c>
-      <c r="C22" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="C22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-2.0</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="B24">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25">
         <v>50.55</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-3.5</v>
       </c>
-      <c r="C26" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="C26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>9.5</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>2.25</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>32.33</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>-64.75</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>4.5</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>114.67</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>-17.0</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-65.0</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="B30">
+        <v>-17</v>
+      </c>
+      <c r="C30">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>-10.0</v>
-      </c>
-      <c r="C31" t="n">
-        <v>-55.0</v>
-      </c>
-    </row>
-    <row r="32">
+      <c r="B31">
+        <v>-10</v>
+      </c>
+      <c r="C31">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>24.25</v>
       </c>
-      <c r="C32" t="n">
-        <v>-76.0</v>
-      </c>
-    </row>
-    <row r="33">
+      <c r="C32">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>27.5</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>90.5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-54.43</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>3.4</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>-22.0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="36">
+      <c r="B35">
+        <v>-22</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>28.0</v>
-      </c>
-    </row>
-    <row r="37">
+      <c r="B36">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>17.25</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>-88.75</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>-95.0</v>
-      </c>
-    </row>
-    <row r="39">
+      <c r="B38">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>-95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-12.5</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>96.83</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="41">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="42">
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="43">
+      <c r="B42">
+        <v>-1</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="44">
+      <c r="B43">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>-5.0</v>
-      </c>
-    </row>
-    <row r="45">
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-21.23</v>
       </c>
-      <c r="C45" t="n">
-        <v>-159.77</v>
-      </c>
-    </row>
-    <row r="46">
+      <c r="C45">
+        <v>-159.77000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>-30.0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-71.0</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="B46">
+        <v>-30</v>
+      </c>
+      <c r="C46">
+        <v>-71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="49">
+      <c r="B48">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-72.0</v>
-      </c>
-    </row>
-    <row r="50">
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-84.0</v>
-      </c>
-    </row>
-    <row r="51">
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>21.5</v>
       </c>
-      <c r="C51" t="n">
-        <v>-80.0</v>
-      </c>
-    </row>
-    <row r="52">
+      <c r="C51">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-24.0</v>
-      </c>
-    </row>
-    <row r="53">
+      <c r="B52">
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-10.5</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>105.67</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>33.0</v>
-      </c>
-    </row>
-    <row r="55">
+      <c r="B54">
+        <v>35</v>
+      </c>
+      <c r="C54">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>49.75</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>15.5</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="57">
+      <c r="B56">
+        <v>51</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>11.5</v>
       </c>
-      <c r="C57" t="n">
-        <v>43.0</v>
-      </c>
-    </row>
-    <row r="58">
+      <c r="C57">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="59">
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>15.42</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>-61.33</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="C60" t="n">
+      <c r="B60">
+        <v>19</v>
+      </c>
+      <c r="C60">
         <v>-70.67</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="B61">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>-2.0</v>
-      </c>
-      <c r="C62" t="n">
+      <c r="B62">
+        <v>-2</v>
+      </c>
+      <c r="C62">
         <v>-77.5</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="64">
+      <c r="B63">
+        <v>59</v>
+      </c>
+      <c r="C63">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="65">
+      <c r="B64">
+        <v>27</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>24.5</v>
       </c>
-      <c r="C65" t="n">
-        <v>-13.0</v>
-      </c>
-    </row>
-    <row r="66">
+      <c r="C65">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C66" t="n">
-        <v>39.0</v>
-      </c>
-    </row>
-    <row r="67">
+      <c r="B66">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>-4.0</v>
-      </c>
-    </row>
-    <row r="68">
+      <c r="B67">
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="69">
+      <c r="B68">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="70">
+      <c r="B69">
+        <v>47</v>
+      </c>
+      <c r="C69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="C70" t="n">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="71">
+      <c r="B70">
+        <v>64</v>
+      </c>
+      <c r="C70">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>-18.0</v>
-      </c>
-      <c r="C71" t="n">
-        <v>175.0</v>
-      </c>
-    </row>
-    <row r="72">
+      <c r="B71">
+        <v>-18</v>
+      </c>
+      <c r="C71">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-51.75</v>
       </c>
-      <c r="C72" t="n">
-        <v>-59.0</v>
-      </c>
-    </row>
-    <row r="73">
+      <c r="C72">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>6.92</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>158.25</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-7.0</v>
-      </c>
-    </row>
-    <row r="75">
+      <c r="B74">
+        <v>62</v>
+      </c>
+      <c r="C74">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="C75" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="B75">
+        <v>46</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="C76" t="n">
+      <c r="B76">
+        <v>-1</v>
+      </c>
+      <c r="C76">
         <v>11.75</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-2.0</v>
-      </c>
-    </row>
-    <row r="78">
+      <c r="B77">
+        <v>54</v>
+      </c>
+      <c r="C77">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>12.12</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>-61.67</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="C79" t="n">
+      <c r="B79">
+        <v>42</v>
+      </c>
+      <c r="C79">
         <v>43.5</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-53.0</v>
-      </c>
-    </row>
-    <row r="81">
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-2.0</v>
-      </c>
-    </row>
-    <row r="82">
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>36.18</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>-5.37</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-40.0</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="B83">
+        <v>72</v>
+      </c>
+      <c r="C83">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>13.47</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>-16.57</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-10.0</v>
-      </c>
-    </row>
-    <row r="86">
+      <c r="B85">
+        <v>11</v>
+      </c>
+      <c r="C85">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>16.25</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>-61.58</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C87" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="88">
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="C88" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="89">
+      <c r="B88">
+        <v>39</v>
+      </c>
+      <c r="C88">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-54.5</v>
       </c>
-      <c r="C89" t="n">
-        <v>-37.0</v>
-      </c>
-    </row>
-    <row r="90">
+      <c r="C89">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>15.5</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>-90.25</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>13.47</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>144.78</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-15.0</v>
-      </c>
-    </row>
-    <row r="93">
+      <c r="B92">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-59.0</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>-59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>22.25</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>114.17</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-53.1</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>72.52</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C96" t="n">
+      <c r="B96">
+        <v>15</v>
+      </c>
+      <c r="C96">
         <v>-86.5</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>45.17</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>15.5</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="C98" t="n">
+      <c r="B98">
+        <v>19</v>
+      </c>
+      <c r="C98">
         <v>-72.42</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="C99" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="100">
+      <c r="B99">
+        <v>47</v>
+      </c>
+      <c r="C99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="C100" t="n">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="101">
+      <c r="B100">
+        <v>-5</v>
+      </c>
+      <c r="C100">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
-        <v>53.0</v>
-      </c>
-      <c r="C101" t="n">
-        <v>-8.0</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="B101">
+        <v>53</v>
+      </c>
+      <c r="C101">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>31.5</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>34.75</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C103" t="n">
-        <v>77.0</v>
-      </c>
-    </row>
-    <row r="104">
+      <c r="B103">
+        <v>20</v>
+      </c>
+      <c r="C103">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
-        <v>-6.0</v>
-      </c>
-      <c r="C104" t="n">
+      <c r="B104">
+        <v>-6</v>
+      </c>
+      <c r="C104">
         <v>71.5</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="C105" t="n">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="106">
+      <c r="B105">
+        <v>33</v>
+      </c>
+      <c r="C105">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="C106" t="n">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="B106">
+        <v>32</v>
+      </c>
+      <c r="C106">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="C107" t="n">
-        <v>-18.0</v>
-      </c>
-    </row>
-    <row r="108">
+      <c r="B107">
+        <v>65</v>
+      </c>
+      <c r="C107">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>42.83</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>12.83</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>18.25</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-77.5</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="111">
+      <c r="B110">
+        <v>31</v>
+      </c>
+      <c r="C110">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="C111" t="n">
-        <v>138.0</v>
-      </c>
-    </row>
-    <row r="112">
+      <c r="B111">
+        <v>36</v>
+      </c>
+      <c r="C111">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="C113" t="n">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="114">
+      <c r="B113">
+        <v>41</v>
+      </c>
+      <c r="C113">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C114" t="n">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="B114">
+        <v>13</v>
+      </c>
+      <c r="C114">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>1.42</v>
       </c>
-      <c r="C115" t="n">
-        <v>173.0</v>
-      </c>
-    </row>
-    <row r="116">
+      <c r="C115">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-12.17</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>44.25</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
-        <v>17.33</v>
-      </c>
-      <c r="C117" t="n">
+      <c r="B117">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="C117">
         <v>-62.75</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="C118" t="n">
-        <v>127.0</v>
-      </c>
-    </row>
-    <row r="119">
+      <c r="B118">
+        <v>40</v>
+      </c>
+      <c r="C118">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="C119" t="n">
+      <c r="B119">
+        <v>37</v>
+      </c>
+      <c r="C119">
         <v>127.5</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>29.34</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>47.66</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>19.5</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-80.5</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="C122" t="n">
-        <v>68.0</v>
-      </c>
-    </row>
-    <row r="123">
+      <c r="B122">
+        <v>48</v>
+      </c>
+      <c r="C122">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="C123" t="n">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="124">
+      <c r="B123">
+        <v>18</v>
+      </c>
+      <c r="C123">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>33.83</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>35.83</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>13.88</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>-61.13</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>47.17</v>
       </c>
-      <c r="C126" t="n">
-        <v>9.53</v>
-      </c>
-    </row>
-    <row r="127">
+      <c r="C126">
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="C127" t="n">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="128">
+      <c r="B127">
+        <v>7</v>
+      </c>
+      <c r="C127">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>6.5</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>-9.5</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-29.5</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>28.5</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="C130" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="131">
+      <c r="B130">
+        <v>56</v>
+      </c>
+      <c r="C130">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>49.75</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>6.17</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="C132" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="133">
+      <c r="B132">
+        <v>57</v>
+      </c>
+      <c r="C132">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="C133" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="134">
+      <c r="B133">
+        <v>25</v>
+      </c>
+      <c r="C133">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="C134" t="n">
-        <v>-5.0</v>
-      </c>
-    </row>
-    <row r="135">
+      <c r="B134">
+        <v>32</v>
+      </c>
+      <c r="C134">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>43.73</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>7.4</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="C136" t="n">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="137">
+      <c r="B136">
+        <v>47</v>
+      </c>
+      <c r="C136">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="C137" t="n">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="138">
+      <c r="B137">
+        <v>42</v>
+      </c>
+      <c r="C137">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
-        <v>-20.0</v>
-      </c>
-      <c r="C138" t="n">
-        <v>47.0</v>
-      </c>
-    </row>
-    <row r="139">
+      <c r="B138">
+        <v>-20</v>
+      </c>
+      <c r="C138">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C139" t="n">
-        <v>168.0</v>
-      </c>
-    </row>
-    <row r="140">
+      <c r="B139">
+        <v>9</v>
+      </c>
+      <c r="C139">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>41.83</v>
       </c>
-      <c r="C140" t="n">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="141">
+      <c r="C140">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="C141" t="n">
-        <v>-4.0</v>
-      </c>
-    </row>
-    <row r="142">
+      <c r="B141">
+        <v>17</v>
+      </c>
+      <c r="C141">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="C142" t="n">
-        <v>98.0</v>
-      </c>
-    </row>
-    <row r="143">
+      <c r="B142">
+        <v>22</v>
+      </c>
+      <c r="C142">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="C143" t="n">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="144">
+      <c r="B143">
+        <v>46</v>
+      </c>
+      <c r="C143">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>22.17</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>113.55</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>15.2</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>145.75</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>14.67</v>
       </c>
-      <c r="C146" t="n">
-        <v>-61.0</v>
-      </c>
-    </row>
-    <row r="147">
+      <c r="C146">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C147" t="n">
-        <v>-12.0</v>
-      </c>
-    </row>
-    <row r="148">
+      <c r="B147">
+        <v>20</v>
+      </c>
+      <c r="C147">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>16.75</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>-62.2</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>35.83</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>14.58</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-20.28</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>57.55</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>3.25</v>
       </c>
-      <c r="C151" t="n">
-        <v>73.0</v>
-      </c>
-    </row>
-    <row r="152">
+      <c r="C151">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-13.5</v>
       </c>
-      <c r="C152" t="n">
-        <v>34.0</v>
-      </c>
-    </row>
-    <row r="153">
+      <c r="C152">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="C153" t="n">
-        <v>-102.0</v>
-      </c>
-    </row>
-    <row r="154">
+      <c r="B153">
+        <v>23</v>
+      </c>
+      <c r="C153">
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>2.5</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>112.5</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-18.25</v>
       </c>
-      <c r="C155" t="n">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="156">
+      <c r="C155">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
-        <v>-22.0</v>
-      </c>
-      <c r="C156" t="n">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="157">
+      <c r="B156">
+        <v>-22</v>
+      </c>
+      <c r="C156">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-21.5</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>165.5</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="C158" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="159">
+      <c r="B158">
+        <v>16</v>
+      </c>
+      <c r="C158">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-29.03</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>167.95</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C160" t="n">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="161">
+      <c r="B160">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C161" t="n">
-        <v>-85.0</v>
-      </c>
-    </row>
-    <row r="162">
+      <c r="B161">
+        <v>13</v>
+      </c>
+      <c r="C161">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>52.5</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>5.75</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="C163" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="164">
+      <c r="B163">
+        <v>62</v>
+      </c>
+      <c r="C163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="C164" t="n">
-        <v>84.0</v>
-      </c>
-    </row>
-    <row r="165">
+      <c r="B164">
+        <v>28</v>
+      </c>
+      <c r="C164">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-0.53</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>166.92</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-19.03</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-169.87</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
-        <v>-41.0</v>
-      </c>
-      <c r="C167" t="n">
-        <v>174.0</v>
-      </c>
-    </row>
-    <row r="168">
+      <c r="B167">
+        <v>-41</v>
+      </c>
+      <c r="C167">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="C168" t="n">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="169">
+      <c r="B168">
+        <v>21</v>
+      </c>
+      <c r="C168">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="C169" t="n">
-        <v>-80.0</v>
-      </c>
-    </row>
-    <row r="170">
+      <c r="B169">
+        <v>9</v>
+      </c>
+      <c r="C169">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
-        <v>-10.0</v>
-      </c>
-      <c r="C170" t="n">
-        <v>-76.0</v>
-      </c>
-    </row>
-    <row r="171">
+      <c r="B170">
+        <v>-10</v>
+      </c>
+      <c r="C170">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
-        <v>-15.0</v>
-      </c>
-      <c r="C171" t="n">
-        <v>-140.0</v>
-      </c>
-    </row>
-    <row r="172">
+      <c r="B171">
+        <v>-15</v>
+      </c>
+      <c r="C171">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
-        <v>-6.0</v>
-      </c>
-      <c r="C172" t="n">
-        <v>147.0</v>
-      </c>
-    </row>
-    <row r="173">
+      <c r="B172">
+        <v>-6</v>
+      </c>
+      <c r="C172">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="C173" t="n">
-        <v>122.0</v>
-      </c>
-    </row>
-    <row r="174">
+      <c r="B173">
+        <v>13</v>
+      </c>
+      <c r="C173">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="C174" t="n">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="175">
+      <c r="B174">
+        <v>30</v>
+      </c>
+      <c r="C174">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="C175" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="176">
+      <c r="B175">
+        <v>52</v>
+      </c>
+      <c r="C175">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>46.83</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-56.33</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>18.25</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-66.5</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="C178" t="n">
+      <c r="B178">
+        <v>32</v>
+      </c>
+      <c r="C178">
         <v>35.25</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>39.5</v>
       </c>
-      <c r="C179" t="n">
-        <v>-8.0</v>
-      </c>
-    </row>
-    <row r="180">
+      <c r="C179">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>7.5</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>134.5</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
-        <v>-23.0</v>
-      </c>
-      <c r="C181" t="n">
-        <v>-58.0</v>
-      </c>
-    </row>
-    <row r="182">
+      <c r="B181">
+        <v>-23</v>
+      </c>
+      <c r="C181">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>25.5</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>51.25</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-21.1</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>55.6</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="C184" t="n">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="185">
+      <c r="B184">
+        <v>46</v>
+      </c>
+      <c r="C184">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="C185" t="n">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="186">
+      <c r="B185">
+        <v>44</v>
+      </c>
+      <c r="C185">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="C186" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="187">
+      <c r="B186">
+        <v>60</v>
+      </c>
+      <c r="C186">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
-        <v>-2.0</v>
-      </c>
-      <c r="C187" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="188">
+      <c r="B187">
+        <v>-2</v>
+      </c>
+      <c r="C187">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="C188" t="n">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="189">
+      <c r="B188">
+        <v>25</v>
+      </c>
+      <c r="C188">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
-        <v>-8.0</v>
-      </c>
-      <c r="C189" t="n">
-        <v>159.0</v>
-      </c>
-    </row>
-    <row r="190">
+      <c r="B189">
+        <v>-8</v>
+      </c>
+      <c r="C189">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-4.58</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>55.67</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C191" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="192">
+      <c r="B191">
+        <v>15</v>
+      </c>
+      <c r="C191">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="C192" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="193">
+      <c r="B192">
+        <v>62</v>
+      </c>
+      <c r="C192">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>1.37</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>103.8</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-15.93</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-5.7</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="C195" t="n">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="196">
+      <c r="B195">
+        <v>46</v>
+      </c>
+      <c r="C195">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="C196" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="197">
+      <c r="B196">
+        <v>78</v>
+      </c>
+      <c r="C196">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>48.67</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>19.5</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>8.5</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-11.5</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>43.77</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>12.42</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="C200" t="n">
-        <v>-14.0</v>
-      </c>
-    </row>
-    <row r="201">
+      <c r="B200">
+        <v>14</v>
+      </c>
+      <c r="C200">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C201" t="n">
-        <v>49.0</v>
-      </c>
-    </row>
-    <row r="202">
+      <c r="B201">
+        <v>10</v>
+      </c>
+      <c r="C201">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="C202" t="n">
-        <v>-56.0</v>
-      </c>
-    </row>
-    <row r="203">
+      <c r="B202">
+        <v>4</v>
+      </c>
+      <c r="C202">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C203" t="n">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="204">
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>13.83</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>-88.92</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="C205" t="n">
-        <v>38.0</v>
-      </c>
-    </row>
-    <row r="206">
+      <c r="B205">
+        <v>35</v>
+      </c>
+      <c r="C205">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-26.5</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>31.5</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>21.75</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>-71.58</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C208" t="n">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="209">
+      <c r="B208">
+        <v>15</v>
+      </c>
+      <c r="C208">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
-        <v>-43.0</v>
-      </c>
-      <c r="C209" t="n">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="210">
+      <c r="B209">
+        <v>-43</v>
+      </c>
+      <c r="C209">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C210" t="n">
+      <c r="B210">
+        <v>8</v>
+      </c>
+      <c r="C210">
         <v>1.17</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C211" t="n">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="212">
+      <c r="B211">
+        <v>15</v>
+      </c>
+      <c r="C211">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="C212" t="n">
-        <v>71.0</v>
-      </c>
-    </row>
-    <row r="213">
+      <c r="B212">
+        <v>39</v>
+      </c>
+      <c r="C212">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
-        <v>-9.0</v>
-      </c>
-      <c r="C213" t="n">
-        <v>-172.0</v>
-      </c>
-    </row>
-    <row r="214">
+      <c r="B213">
+        <v>-9</v>
+      </c>
+      <c r="C213">
+        <v>-172</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="C214" t="n">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="215">
+      <c r="B214">
+        <v>40</v>
+      </c>
+      <c r="C214">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="C215" t="n">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="216">
+      <c r="B215">
+        <v>34</v>
+      </c>
+      <c r="C215">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
-        <v>-20.0</v>
-      </c>
-      <c r="C216" t="n">
-        <v>-175.0</v>
-      </c>
-    </row>
-    <row r="217">
+      <c r="B216">
+        <v>-20</v>
+      </c>
+      <c r="C216">
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="C217" t="n">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="218">
+      <c r="B217">
+        <v>39</v>
+      </c>
+      <c r="C217">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="C218" t="n">
-        <v>-61.0</v>
-      </c>
-    </row>
-    <row r="219">
+      <c r="B218">
+        <v>11</v>
+      </c>
+      <c r="C218">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
-        <v>-8.0</v>
-      </c>
-      <c r="C219" t="n">
-        <v>178.0</v>
-      </c>
-    </row>
-    <row r="220">
+      <c r="B219">
+        <v>-8</v>
+      </c>
+      <c r="C219">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>23.5</v>
       </c>
-      <c r="C220" t="n">
-        <v>121.0</v>
-      </c>
-    </row>
-    <row r="221">
+      <c r="C220">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
-        <v>-6.0</v>
-      </c>
-      <c r="C221" t="n">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="222">
+      <c r="B221">
+        <v>-6</v>
+      </c>
+      <c r="C221">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="C222" t="n">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="223">
+      <c r="B222">
+        <v>49</v>
+      </c>
+      <c r="C222">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C223" t="n">
-        <v>32.0</v>
-      </c>
-    </row>
-    <row r="224">
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>19.28</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>166.6</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="C225" t="n">
-        <v>-97.0</v>
-      </c>
-    </row>
-    <row r="226">
+      <c r="B225">
+        <v>38</v>
+      </c>
+      <c r="C225">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
-        <v>-33.0</v>
-      </c>
-      <c r="C226" t="n">
-        <v>-56.0</v>
-      </c>
-    </row>
-    <row r="227">
+      <c r="B226">
+        <v>-33</v>
+      </c>
+      <c r="C226">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="C227" t="n">
-        <v>64.0</v>
-      </c>
-    </row>
-    <row r="228">
+      <c r="B227">
+        <v>41</v>
+      </c>
+      <c r="C227">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>41.9</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>12.45</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>13.25</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>-61.2</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="C230" t="n">
-        <v>-66.0</v>
-      </c>
-    </row>
-    <row r="231">
+      <c r="B230">
+        <v>8</v>
+      </c>
+      <c r="C230">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>18.5</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>-64.5</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
-        <v>18.33</v>
-      </c>
-      <c r="C232" t="n">
+      <c r="B232">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="C232">
         <v>-64.83</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="C233" t="n">
-        <v>106.0</v>
-      </c>
-    </row>
-    <row r="234">
+      <c r="B233">
+        <v>16</v>
+      </c>
+      <c r="C233">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
-        <v>-16.0</v>
-      </c>
-      <c r="C234" t="n">
-        <v>167.0</v>
-      </c>
-    </row>
-    <row r="235">
+      <c r="B234">
+        <v>-16</v>
+      </c>
+      <c r="C234">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-13.3</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>-176.2</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-13.58</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>-172.33</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="C237" t="n">
-        <v>48.0</v>
-      </c>
-    </row>
-    <row r="238">
+      <c r="B237">
+        <v>15</v>
+      </c>
+      <c r="C237">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-12.83</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>45.17</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
-        <v>-29.0</v>
-      </c>
-      <c r="C239" t="n">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="240">
+      <c r="B239">
+        <v>-29</v>
+      </c>
+      <c r="C239">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
-        <v>-15.0</v>
-      </c>
-      <c r="C240" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="241">
+      <c r="B240">
+        <v>-15</v>
+      </c>
+      <c r="C240">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>125</v>
       </c>
@@ -3424,7 +3745,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>28</v>
       </c>
@@ -3432,7 +3753,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>188</v>
       </c>
@@ -3440,7 +3761,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>38</v>
       </c>
@@ -3448,7 +3769,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>20</v>
       </c>
@@ -3456,7 +3777,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -3464,7 +3785,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>94</v>
       </c>
@@ -3472,15 +3793,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B248" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>153</v>
       </c>
@@ -3488,7 +3809,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>88</v>
       </c>
@@ -3496,7 +3817,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>176</v>
       </c>
@@ -3504,7 +3825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>193</v>
       </c>
@@ -3512,7 +3833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>187</v>
       </c>
@@ -3520,7 +3841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>74</v>
       </c>
@@ -3528,7 +3849,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>158</v>
       </c>
@@ -3536,7 +3857,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>174</v>
       </c>
@@ -3545,6 +3866,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/edges.xlsx
+++ b/edges.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithim\Project_3_Dijikstra\DijikstraGui\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3D79E0-BA29-4C7E-A822-64CB892166E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4C4EF8-4349-496C-9697-4F242AEA441F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="231">
   <si>
     <t>Andorra</t>
   </si>
@@ -713,30 +713,6 @@
   </si>
   <si>
     <t>Virgin Islands, U.S.</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Zambia</t>
   </si>
 </sst>
 </file>
@@ -1088,24 +1064,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C256"/>
+  <dimension ref="A1:C833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247"/>
+    <sheetView tabSelected="1" topLeftCell="A821" workbookViewId="0">
+      <selection activeCell="C833" sqref="C833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B1">
-        <v>16</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3651,218 +3623,4810 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>231</v>
-      </c>
-      <c r="B233">
-        <v>16</v>
-      </c>
-      <c r="C233">
-        <v>106</v>
+        <v>77</v>
+      </c>
+      <c r="B233" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>232</v>
-      </c>
-      <c r="B234">
-        <v>-16</v>
-      </c>
-      <c r="C234">
-        <v>167</v>
+        <v>162</v>
+      </c>
+      <c r="B234" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>233</v>
-      </c>
-      <c r="B235">
-        <v>-13.3</v>
-      </c>
-      <c r="C235">
-        <v>-176.2</v>
+        <v>42</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>234</v>
-      </c>
-      <c r="B236">
-        <v>-13.58</v>
-      </c>
-      <c r="C236">
-        <v>-172.33</v>
+        <v>61</v>
+      </c>
+      <c r="B236" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>235</v>
-      </c>
-      <c r="B237">
-        <v>15</v>
-      </c>
-      <c r="C237">
-        <v>48</v>
+        <v>133</v>
+      </c>
+      <c r="B237" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>236</v>
-      </c>
-      <c r="B238">
-        <v>-12.83</v>
-      </c>
-      <c r="C238">
-        <v>45.17</v>
+        <v>90</v>
+      </c>
+      <c r="B238" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>237</v>
-      </c>
-      <c r="B239">
-        <v>-29</v>
-      </c>
-      <c r="C239">
-        <v>24</v>
+        <v>189</v>
+      </c>
+      <c r="B239" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>238</v>
-      </c>
-      <c r="B240">
-        <v>-15</v>
-      </c>
-      <c r="C240">
-        <v>30</v>
+        <v>95</v>
+      </c>
+      <c r="B240" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="B241" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B242" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="B243" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B244" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B245" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B246" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="B247" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="B248" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="B249" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B250" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="B251" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="B252" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="B253" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="B254" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="B255" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>31</v>
+      </c>
+      <c r="B256" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>7</v>
+      </c>
+      <c r="B257" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>95</v>
+      </c>
+      <c r="B258" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>126</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>58</v>
+      </c>
+      <c r="B261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>139</v>
+      </c>
+      <c r="B262" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>161</v>
+      </c>
+      <c r="B263" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B264" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>43</v>
+      </c>
+      <c r="B265" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>10</v>
+      </c>
+      <c r="B266" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>117</v>
+      </c>
+      <c r="B267" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>83</v>
+      </c>
+      <c r="B268" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>114</v>
+      </c>
+      <c r="B269" t="s">
         <v>174</v>
       </c>
-      <c r="B256" t="s">
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>93</v>
+      </c>
+      <c r="B270" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>118</v>
+      </c>
+      <c r="B271" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>127</v>
+      </c>
+      <c r="B272" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>123</v>
+      </c>
+      <c r="B273" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>60</v>
+      </c>
+      <c r="B275" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>115</v>
+      </c>
+      <c r="B276" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>59</v>
+      </c>
+      <c r="B277" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>46</v>
+      </c>
+      <c r="B278" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>171</v>
+      </c>
+      <c r="B279" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>31</v>
+      </c>
+      <c r="B280" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>46</v>
+      </c>
+      <c r="B281" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>130</v>
+      </c>
+      <c r="B282" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>159</v>
+      </c>
+      <c r="B283" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>49</v>
+      </c>
+      <c r="B284" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>139</v>
+      </c>
+      <c r="B285" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>7</v>
+      </c>
+      <c r="B286" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>101</v>
+      </c>
+      <c r="B287" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>107</v>
+      </c>
+      <c r="B288" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>112</v>
+      </c>
+      <c r="B289" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>174</v>
+      </c>
+      <c r="B290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>61</v>
+      </c>
+      <c r="B291" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>73</v>
+      </c>
+      <c r="B292" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>160</v>
+      </c>
+      <c r="B293" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>44</v>
+      </c>
+      <c r="B294" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>89</v>
+      </c>
+      <c r="B295" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>155</v>
+      </c>
+      <c r="B296" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>45</v>
+      </c>
+      <c r="B297" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>47</v>
+      </c>
+      <c r="B298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>177</v>
+      </c>
+      <c r="B299" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>107</v>
+      </c>
+      <c r="B300" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>28</v>
+      </c>
+      <c r="B301" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>163</v>
+      </c>
+      <c r="B302" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>144</v>
+      </c>
+      <c r="B303" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>38</v>
+      </c>
+      <c r="B304" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>191</v>
+      </c>
+      <c r="B305" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>35</v>
+      </c>
+      <c r="B306" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>11</v>
+      </c>
+      <c r="B307" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>74</v>
+      </c>
+      <c r="B308" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>56</v>
+      </c>
+      <c r="B309" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>96</v>
+      </c>
+      <c r="B310" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>28</v>
+      </c>
+      <c r="B311" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>150</v>
+      </c>
+      <c r="B312" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>162</v>
+      </c>
+      <c r="B313" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>167</v>
+      </c>
+      <c r="B314" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>152</v>
+      </c>
+      <c r="B315" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>113</v>
+      </c>
+      <c r="B316" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>101</v>
+      </c>
+      <c r="B317" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>22</v>
+      </c>
+      <c r="B318" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>19</v>
+      </c>
+      <c r="B319" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>158</v>
+      </c>
+      <c r="B320" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>131</v>
+      </c>
+      <c r="B321" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>10</v>
+      </c>
+      <c r="B322" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>54</v>
+      </c>
+      <c r="B323" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>34</v>
+      </c>
+      <c r="B324" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>82</v>
+      </c>
+      <c r="B325" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>31</v>
+      </c>
+      <c r="B326" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>190</v>
+      </c>
+      <c r="B327" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>120</v>
+      </c>
+      <c r="B328" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>130</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>117</v>
+      </c>
+      <c r="B330" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>147</v>
+      </c>
+      <c r="B331" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>174</v>
+      </c>
+      <c r="B332" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>81</v>
+      </c>
+      <c r="B333" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>19</v>
+      </c>
+      <c r="B334" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>192</v>
+      </c>
+      <c r="B335" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>37</v>
+      </c>
+      <c r="B336" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>26</v>
+      </c>
+      <c r="B337" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>91</v>
+      </c>
+      <c r="B338" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>48</v>
+      </c>
+      <c r="B339" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>196</v>
+      </c>
+      <c r="B340" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>127</v>
+      </c>
+      <c r="B341" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>191</v>
+      </c>
+      <c r="B342" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>134</v>
+      </c>
+      <c r="B343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>164</v>
+      </c>
+      <c r="B344" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>166</v>
+      </c>
+      <c r="B345" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>53</v>
+      </c>
+      <c r="B346" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>86</v>
+      </c>
+      <c r="B347" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>36</v>
+      </c>
+      <c r="B348" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>67</v>
+      </c>
+      <c r="B349" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>173</v>
+      </c>
+      <c r="B350" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>29</v>
+      </c>
+      <c r="B351" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>167</v>
+      </c>
+      <c r="B352" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>24</v>
+      </c>
+      <c r="B353" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>141</v>
+      </c>
+      <c r="B354" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>22</v>
+      </c>
+      <c r="B355" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>33</v>
+      </c>
+      <c r="B356" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>186</v>
+      </c>
+      <c r="B357" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>23</v>
+      </c>
+      <c r="B358" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>149</v>
+      </c>
+      <c r="B359" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>151</v>
+      </c>
+      <c r="B360" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>79</v>
+      </c>
+      <c r="B361" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>182</v>
+      </c>
+      <c r="B362" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>65</v>
+      </c>
+      <c r="B363" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>124</v>
+      </c>
+      <c r="B364" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>35</v>
+      </c>
+      <c r="B365" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>83</v>
+      </c>
+      <c r="B366" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>161</v>
+      </c>
+      <c r="B367" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>79</v>
+      </c>
+      <c r="B368" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>175</v>
+      </c>
+      <c r="B369" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>124</v>
+      </c>
+      <c r="B370" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>176</v>
+      </c>
+      <c r="B371" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>119</v>
+      </c>
+      <c r="B372" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>16</v>
+      </c>
+      <c r="B373" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>163</v>
+      </c>
+      <c r="B374" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>48</v>
+      </c>
+      <c r="B375" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>65</v>
+      </c>
+      <c r="B376" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>85</v>
+      </c>
+      <c r="B377" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>73</v>
+      </c>
+      <c r="B378" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>195</v>
+      </c>
+      <c r="B379" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>112</v>
+      </c>
+      <c r="B380" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>194</v>
+      </c>
+      <c r="B381" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>83</v>
+      </c>
+      <c r="B382" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>191</v>
+      </c>
+      <c r="B383" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>118</v>
+      </c>
+      <c r="B384" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>78</v>
+      </c>
+      <c r="B385" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>138</v>
+      </c>
+      <c r="B386" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>23</v>
+      </c>
+      <c r="B387" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>117</v>
+      </c>
+      <c r="B388" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>6</v>
+      </c>
+      <c r="B389" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>159</v>
+      </c>
+      <c r="B390" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>172</v>
+      </c>
+      <c r="B391" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>19</v>
+      </c>
+      <c r="B392" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>95</v>
+      </c>
+      <c r="B393" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>76</v>
+      </c>
+      <c r="B394" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>157</v>
+      </c>
+      <c r="B395" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>22</v>
+      </c>
+      <c r="B396" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>88</v>
+      </c>
+      <c r="B397" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>130</v>
+      </c>
+      <c r="B398" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>52</v>
+      </c>
+      <c r="B399" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>182</v>
+      </c>
+      <c r="B400" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>36</v>
+      </c>
+      <c r="B401" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>25</v>
+      </c>
+      <c r="B402" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>159</v>
+      </c>
+      <c r="B403" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>25</v>
+      </c>
+      <c r="B404" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>163</v>
+      </c>
+      <c r="B405" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>51</v>
+      </c>
+      <c r="B406" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>49</v>
+      </c>
+      <c r="B407" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>196</v>
+      </c>
+      <c r="B408" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>157</v>
+      </c>
+      <c r="B409" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>159</v>
+      </c>
+      <c r="B410" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>58</v>
+      </c>
+      <c r="B411" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>74</v>
+      </c>
+      <c r="B412" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>76</v>
+      </c>
+      <c r="B413" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>196</v>
+      </c>
+      <c r="B414" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>148</v>
+      </c>
+      <c r="B415" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>47</v>
+      </c>
+      <c r="B416" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>21</v>
+      </c>
+      <c r="B417" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>133</v>
+      </c>
+      <c r="B418" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>196</v>
+      </c>
+      <c r="B419" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>40</v>
+      </c>
+      <c r="B420" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>45</v>
+      </c>
+      <c r="B421" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>125</v>
+      </c>
+      <c r="B422" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>5</v>
+      </c>
+      <c r="B423" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>17</v>
+      </c>
+      <c r="B424" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>38</v>
+      </c>
+      <c r="B425" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>174</v>
+      </c>
+      <c r="B426" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>54</v>
+      </c>
+      <c r="B427" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>111</v>
+      </c>
+      <c r="B428" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>101</v>
+      </c>
+      <c r="B429" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>58</v>
+      </c>
+      <c r="B430" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>55</v>
+      </c>
+      <c r="B431" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>27</v>
+      </c>
+      <c r="B432" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>161</v>
+      </c>
+      <c r="B433" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>121</v>
+      </c>
+      <c r="B434" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>54</v>
+      </c>
+      <c r="B435" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>167</v>
+      </c>
+      <c r="B436" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>50</v>
+      </c>
+      <c r="B437" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>19</v>
+      </c>
+      <c r="B438" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>40</v>
+      </c>
+      <c r="B439" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>129</v>
+      </c>
+      <c r="B440" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>75</v>
+      </c>
+      <c r="B441" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>133</v>
+      </c>
+      <c r="B442" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>65</v>
+      </c>
+      <c r="B443" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>147</v>
+      </c>
+      <c r="B444" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>174</v>
+      </c>
+      <c r="B445" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>152</v>
+      </c>
+      <c r="B446" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>76</v>
+      </c>
+      <c r="B447" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>68</v>
+      </c>
+      <c r="B448" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>196</v>
+      </c>
+      <c r="B449" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>196</v>
+      </c>
+      <c r="B450" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>92</v>
+      </c>
+      <c r="B451" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>196</v>
+      </c>
+      <c r="B452" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>34</v>
+      </c>
+      <c r="B453" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>13</v>
+      </c>
+      <c r="B454" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>9</v>
+      </c>
+      <c r="B455" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>125</v>
+      </c>
+      <c r="B456" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>127</v>
+      </c>
+      <c r="B457" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>9</v>
+      </c>
+      <c r="B458" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>73</v>
+      </c>
+      <c r="B459" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>195</v>
+      </c>
+      <c r="B460" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>86</v>
+      </c>
+      <c r="B461" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>91</v>
+      </c>
+      <c r="B462" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>188</v>
+      </c>
+      <c r="B463" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>103</v>
+      </c>
+      <c r="B464" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>165</v>
+      </c>
+      <c r="B465" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>157</v>
+      </c>
+      <c r="B466" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>187</v>
+      </c>
+      <c r="B467" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>56</v>
+      </c>
+      <c r="B468" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>12</v>
+      </c>
+      <c r="B469" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>187</v>
+      </c>
+      <c r="B470" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>123</v>
+      </c>
+      <c r="B471" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>188</v>
+      </c>
+      <c r="B472" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>161</v>
+      </c>
+      <c r="B473" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>127</v>
+      </c>
+      <c r="B474" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>92</v>
+      </c>
+      <c r="B475" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>177</v>
+      </c>
+      <c r="B476" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>61</v>
+      </c>
+      <c r="B477" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>1</v>
+      </c>
+      <c r="B478" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>124</v>
+      </c>
+      <c r="B479" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>24</v>
+      </c>
+      <c r="B480" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>3</v>
+      </c>
+      <c r="B481" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>65</v>
+      </c>
+      <c r="B482" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>189</v>
+      </c>
+      <c r="B483" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>34</v>
+      </c>
+      <c r="B484" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>70</v>
+      </c>
+      <c r="B485" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>49</v>
+      </c>
+      <c r="B486" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>9</v>
+      </c>
+      <c r="B487" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>46</v>
+      </c>
+      <c r="B488" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>182</v>
+      </c>
+      <c r="B489" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>66</v>
+      </c>
+      <c r="B490" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>11</v>
+      </c>
+      <c r="B491" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>199</v>
+      </c>
+      <c r="B492" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>44</v>
+      </c>
+      <c r="B493" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>95</v>
+      </c>
+      <c r="B494" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>37</v>
+      </c>
+      <c r="B495" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>67</v>
+      </c>
+      <c r="B496" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>43</v>
+      </c>
+      <c r="B497" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>17</v>
+      </c>
+      <c r="B498" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>106</v>
+      </c>
+      <c r="B499" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>60</v>
+      </c>
+      <c r="B500" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>167</v>
+      </c>
+      <c r="B501" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>142</v>
+      </c>
+      <c r="B502" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>68</v>
+      </c>
+      <c r="B503" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>86</v>
+      </c>
+      <c r="B504" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>146</v>
+      </c>
+      <c r="B505" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>170</v>
+      </c>
+      <c r="B506" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>48</v>
+      </c>
+      <c r="B507" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>157</v>
+      </c>
+      <c r="B508" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>52</v>
+      </c>
+      <c r="B509" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>5</v>
+      </c>
+      <c r="B510" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>172</v>
+      </c>
+      <c r="B511" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>6</v>
+      </c>
+      <c r="B512" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>199</v>
+      </c>
+      <c r="B513" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>119</v>
+      </c>
+      <c r="B514" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>8</v>
+      </c>
+      <c r="B515" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>128</v>
+      </c>
+      <c r="B516" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>191</v>
+      </c>
+      <c r="B517" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>15</v>
+      </c>
+      <c r="B518" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>110</v>
+      </c>
+      <c r="B519" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>84</v>
+      </c>
+      <c r="B520" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>198</v>
+      </c>
+      <c r="B521" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1</v>
+      </c>
+      <c r="B522" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>18</v>
+      </c>
+      <c r="B523" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>138</v>
+      </c>
+      <c r="B524" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>42</v>
+      </c>
+      <c r="B525" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>84</v>
+      </c>
+      <c r="B526" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>121</v>
+      </c>
+      <c r="B527" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>156</v>
+      </c>
+      <c r="B528" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>33</v>
+      </c>
+      <c r="B529" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>23</v>
+      </c>
+      <c r="B530" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>141</v>
+      </c>
+      <c r="B531" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>12</v>
+      </c>
+      <c r="B532" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>32</v>
+      </c>
+      <c r="B533" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>154</v>
+      </c>
+      <c r="B534" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>34</v>
+      </c>
+      <c r="B535" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>101</v>
+      </c>
+      <c r="B536" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>115</v>
+      </c>
+      <c r="B537" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>47</v>
+      </c>
+      <c r="B538" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>174</v>
+      </c>
+      <c r="B539" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>187</v>
+      </c>
+      <c r="B540" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>107</v>
+      </c>
+      <c r="B541" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>165</v>
+      </c>
+      <c r="B542" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>106</v>
+      </c>
+      <c r="B543" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>19</v>
+      </c>
+      <c r="B544" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>109</v>
+      </c>
+      <c r="B545" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>149</v>
+      </c>
+      <c r="B546" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>50</v>
+      </c>
+      <c r="B547" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>136</v>
+      </c>
+      <c r="B548" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>171</v>
+      </c>
+      <c r="B549" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>76</v>
+      </c>
+      <c r="B550" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>24</v>
+      </c>
+      <c r="B551" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>75</v>
+      </c>
+      <c r="B552" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>16</v>
+      </c>
+      <c r="B553" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>45</v>
+      </c>
+      <c r="B554" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>138</v>
+      </c>
+      <c r="B555" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>28</v>
+      </c>
+      <c r="B556" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>25</v>
+      </c>
+      <c r="B557" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>96</v>
+      </c>
+      <c r="B558" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>104</v>
+      </c>
+      <c r="B559" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>2</v>
+      </c>
+      <c r="B560" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>108</v>
+      </c>
+      <c r="B561" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>27</v>
+      </c>
+      <c r="B562" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>78</v>
+      </c>
+      <c r="B563" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>2</v>
+      </c>
+      <c r="B564" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>60</v>
+      </c>
+      <c r="B565" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>180</v>
+      </c>
+      <c r="B566" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>150</v>
+      </c>
+      <c r="B567" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>112</v>
+      </c>
+      <c r="B568" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>88</v>
+      </c>
+      <c r="B569" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>182</v>
+      </c>
+      <c r="B570" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>30</v>
+      </c>
+      <c r="B571" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>194</v>
+      </c>
+      <c r="B572" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>166</v>
+      </c>
+      <c r="B573" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>9</v>
+      </c>
+      <c r="B574" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>199</v>
+      </c>
+      <c r="B575" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>110</v>
+      </c>
+      <c r="B576" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>5</v>
+      </c>
+      <c r="B577" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>174</v>
+      </c>
+      <c r="B578" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>80</v>
+      </c>
+      <c r="B579" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>193</v>
+      </c>
+      <c r="B580" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>106</v>
+      </c>
+      <c r="B581" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>135</v>
+      </c>
+      <c r="B582" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>132</v>
+      </c>
+      <c r="B583" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>5</v>
+      </c>
+      <c r="B584" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>7</v>
+      </c>
+      <c r="B585" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>55</v>
+      </c>
+      <c r="B586" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>174</v>
+      </c>
+      <c r="B587" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>151</v>
+      </c>
+      <c r="B588" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>137</v>
+      </c>
+      <c r="B589" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>104</v>
+      </c>
+      <c r="B590" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>113</v>
+      </c>
+      <c r="B591" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>185</v>
+      </c>
+      <c r="B592" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>141</v>
+      </c>
+      <c r="B593" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>96</v>
+      </c>
+      <c r="B594" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>166</v>
+      </c>
+      <c r="B595" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>124</v>
+      </c>
+      <c r="B596" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>15</v>
+      </c>
+      <c r="B597" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>103</v>
+      </c>
+      <c r="B598" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>69</v>
+      </c>
+      <c r="B599" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>114</v>
+      </c>
+      <c r="B600" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>157</v>
+      </c>
+      <c r="B601" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>8</v>
+      </c>
+      <c r="B602" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>37</v>
+      </c>
+      <c r="B603" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>187</v>
+      </c>
+      <c r="B604" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>70</v>
+      </c>
+      <c r="B605" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>3</v>
+      </c>
+      <c r="B606" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>141</v>
+      </c>
+      <c r="B607" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>4</v>
+      </c>
+      <c r="B608" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>26</v>
+      </c>
+      <c r="B609" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>150</v>
+      </c>
+      <c r="B610" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>175</v>
+      </c>
+      <c r="B611" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>67</v>
+      </c>
+      <c r="B612" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>7</v>
+      </c>
+      <c r="B613" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>24</v>
+      </c>
+      <c r="B614" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>162</v>
+      </c>
+      <c r="B615" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>190</v>
+      </c>
+      <c r="B616" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>45</v>
+      </c>
+      <c r="B617" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>87</v>
+      </c>
+      <c r="B618" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>120</v>
+      </c>
+      <c r="B619" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>118</v>
+      </c>
+      <c r="B620" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>185</v>
+      </c>
+      <c r="B621" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>46</v>
+      </c>
+      <c r="B622" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>104</v>
+      </c>
+      <c r="B623" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>189</v>
+      </c>
+      <c r="B624" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>182</v>
+      </c>
+      <c r="B625" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>177</v>
+      </c>
+      <c r="B626" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>71</v>
+      </c>
+      <c r="B627" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>86</v>
+      </c>
+      <c r="B628" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>163</v>
+      </c>
+      <c r="B629" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>163</v>
+      </c>
+      <c r="B630" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>114</v>
+      </c>
+      <c r="B631" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>100</v>
+      </c>
+      <c r="B632" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>68</v>
+      </c>
+      <c r="B633" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>66</v>
+      </c>
+      <c r="B634" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>64</v>
+      </c>
+      <c r="B635" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>151</v>
+      </c>
+      <c r="B636" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>161</v>
+      </c>
+      <c r="B637" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>45</v>
+      </c>
+      <c r="B638" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>37</v>
+      </c>
+      <c r="B639" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>138</v>
+      </c>
+      <c r="B640" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>153</v>
+      </c>
+      <c r="B641" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>63</v>
+      </c>
+      <c r="B642" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>100</v>
+      </c>
+      <c r="B643" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>123</v>
+      </c>
+      <c r="B644" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>92</v>
+      </c>
+      <c r="B645" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>25</v>
+      </c>
+      <c r="B646" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>27</v>
+      </c>
+      <c r="B647" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>47</v>
+      </c>
+      <c r="B648" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>44</v>
+      </c>
+      <c r="B649" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>115</v>
+      </c>
+      <c r="B650" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>16</v>
+      </c>
+      <c r="B651" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>197</v>
+      </c>
+      <c r="B652" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>194</v>
+      </c>
+      <c r="B653" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>144</v>
+      </c>
+      <c r="B654" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>45</v>
+      </c>
+      <c r="B655" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>103</v>
+      </c>
+      <c r="B656" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>74</v>
+      </c>
+      <c r="B657" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>190</v>
+      </c>
+      <c r="B658" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>115</v>
+      </c>
+      <c r="B659" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>179</v>
+      </c>
+      <c r="B660" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>179</v>
+      </c>
+      <c r="B661" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>85</v>
+      </c>
+      <c r="B662" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>196</v>
+      </c>
+      <c r="B663" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>191</v>
+      </c>
+      <c r="B664" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>167</v>
+      </c>
+      <c r="B665" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>149</v>
+      </c>
+      <c r="B666" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>36</v>
+      </c>
+      <c r="B667" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>130</v>
+      </c>
+      <c r="B668" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>155</v>
+      </c>
+      <c r="B669" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>79</v>
+      </c>
+      <c r="B670" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>74</v>
+      </c>
+      <c r="B671" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>8</v>
+      </c>
+      <c r="B672" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>199</v>
+      </c>
+      <c r="B673" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>37</v>
+      </c>
+      <c r="B674" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>130</v>
+      </c>
+      <c r="B675" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>88</v>
+      </c>
+      <c r="B676" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>180</v>
+      </c>
+      <c r="B677" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>112</v>
+      </c>
+      <c r="B678" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>174</v>
+      </c>
+      <c r="B679" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>160</v>
+      </c>
+      <c r="B680" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>142</v>
+      </c>
+      <c r="B681" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>2</v>
+      </c>
+      <c r="B682" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>20</v>
+      </c>
+      <c r="B683" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>111</v>
+      </c>
+      <c r="B684" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>84</v>
+      </c>
+      <c r="B685" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>134</v>
+      </c>
+      <c r="B686" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>168</v>
+      </c>
+      <c r="B687" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>89</v>
+      </c>
+      <c r="B688" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>133</v>
+      </c>
+      <c r="B689" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>5</v>
+      </c>
+      <c r="B690" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>93</v>
+      </c>
+      <c r="B691" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>50</v>
+      </c>
+      <c r="B692" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>27</v>
+      </c>
+      <c r="B693" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>0</v>
+      </c>
+      <c r="B694" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>107</v>
+      </c>
+      <c r="B695" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>133</v>
+      </c>
+      <c r="B696" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>121</v>
+      </c>
+      <c r="B697" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>187</v>
+      </c>
+      <c r="B698" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>167</v>
+      </c>
+      <c r="B699" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>83</v>
+      </c>
+      <c r="B700" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>158</v>
+      </c>
+      <c r="B701" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>2</v>
+      </c>
+      <c r="B702" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>106</v>
+      </c>
+      <c r="B703" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>121</v>
+      </c>
+      <c r="B704" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>10</v>
+      </c>
+      <c r="B705" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>136</v>
+      </c>
+      <c r="B706" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>117</v>
+      </c>
+      <c r="B707" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>75</v>
+      </c>
+      <c r="B708" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>11</v>
+      </c>
+      <c r="B709" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>157</v>
+      </c>
+      <c r="B710" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>103</v>
+      </c>
+      <c r="B711" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>118</v>
+      </c>
+      <c r="B712" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>65</v>
+      </c>
+      <c r="B713" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>116</v>
+      </c>
+      <c r="B714" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>71</v>
+      </c>
+      <c r="B715" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>64</v>
+      </c>
+      <c r="B716" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>136</v>
+      </c>
+      <c r="B717" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>72</v>
+      </c>
+      <c r="B718" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>149</v>
+      </c>
+      <c r="B719" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>65</v>
+      </c>
+      <c r="B720" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>113</v>
+      </c>
+      <c r="B721" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>88</v>
+      </c>
+      <c r="B722" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>174</v>
+      </c>
+      <c r="B723" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>160</v>
+      </c>
+      <c r="B724" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>88</v>
+      </c>
+      <c r="B725" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>119</v>
+      </c>
+      <c r="B726" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>95</v>
+      </c>
+      <c r="B727" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>26</v>
+      </c>
+      <c r="B728" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>175</v>
+      </c>
+      <c r="B729" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>140</v>
+      </c>
+      <c r="B730" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>190</v>
+      </c>
+      <c r="B731" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>17</v>
+      </c>
+      <c r="B732" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>11</v>
+      </c>
+      <c r="B733" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>121</v>
+      </c>
+      <c r="B734" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>184</v>
+      </c>
+      <c r="B735" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>118</v>
+      </c>
+      <c r="B736" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>132</v>
+      </c>
+      <c r="B737" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>45</v>
+      </c>
+      <c r="B738" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>26</v>
+      </c>
+      <c r="B739" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>167</v>
+      </c>
+      <c r="B740" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>172</v>
+      </c>
+      <c r="B741" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>128</v>
+      </c>
+      <c r="B742" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>76</v>
+      </c>
+      <c r="B743" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>30</v>
+      </c>
+      <c r="B744" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>74</v>
+      </c>
+      <c r="B745" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>60</v>
+      </c>
+      <c r="B746" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>118</v>
+      </c>
+      <c r="B747" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>138</v>
+      </c>
+      <c r="B748" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>71</v>
+      </c>
+      <c r="B749" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>170</v>
+      </c>
+      <c r="B750" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>42</v>
+      </c>
+      <c r="B751" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>91</v>
+      </c>
+      <c r="B752" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>189</v>
+      </c>
+      <c r="B753" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>179</v>
+      </c>
+      <c r="B754" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>175</v>
+      </c>
+      <c r="B755" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>81</v>
+      </c>
+      <c r="B756" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>166</v>
+      </c>
+      <c r="B757" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>146</v>
+      </c>
+      <c r="B758" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>194</v>
+      </c>
+      <c r="B759" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>139</v>
+      </c>
+      <c r="B760" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>14</v>
+      </c>
+      <c r="B761" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>94</v>
+      </c>
+      <c r="B762" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>185</v>
+      </c>
+      <c r="B763" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>65</v>
+      </c>
+      <c r="B764" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>134</v>
+      </c>
+      <c r="B765" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>27</v>
+      </c>
+      <c r="B766" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>61</v>
+      </c>
+      <c r="B767" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>69</v>
+      </c>
+      <c r="B768" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>151</v>
+      </c>
+      <c r="B769" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>173</v>
+      </c>
+      <c r="B770" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>49</v>
+      </c>
+      <c r="B771" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>70</v>
+      </c>
+      <c r="B772" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>59</v>
+      </c>
+      <c r="B773" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>187</v>
+      </c>
+      <c r="B774" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>123</v>
+      </c>
+      <c r="B775" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>124</v>
+      </c>
+      <c r="B776" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>49</v>
+      </c>
+      <c r="B777" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>180</v>
+      </c>
+      <c r="B778" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>65</v>
+      </c>
+      <c r="B779" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>18</v>
+      </c>
+      <c r="B780" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>171</v>
+      </c>
+      <c r="B781" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>13</v>
+      </c>
+      <c r="B782" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>65</v>
+      </c>
+      <c r="B783" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>167</v>
+      </c>
+      <c r="B784" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>85</v>
+      </c>
+      <c r="B785" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>67</v>
+      </c>
+      <c r="B786" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>125</v>
+      </c>
+      <c r="B787" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>4</v>
+      </c>
+      <c r="B788" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>37</v>
+      </c>
+      <c r="B789" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>40</v>
+      </c>
+      <c r="B790" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>105</v>
+      </c>
+      <c r="B791" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>168</v>
+      </c>
+      <c r="B792" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>133</v>
+      </c>
+      <c r="B793" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>25</v>
+      </c>
+      <c r="B794" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>47</v>
+      </c>
+      <c r="B795" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>169</v>
+      </c>
+      <c r="B796" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>41</v>
+      </c>
+      <c r="B797" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>190</v>
+      </c>
+      <c r="B798" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>121</v>
+      </c>
+      <c r="B799" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>11</v>
+      </c>
+      <c r="B800" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>180</v>
+      </c>
+      <c r="B801" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>167</v>
+      </c>
+      <c r="B802" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>72</v>
+      </c>
+      <c r="B803" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>171</v>
+      </c>
+      <c r="B804" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>180</v>
+      </c>
+      <c r="B805" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>115</v>
+      </c>
+      <c r="B806" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>46</v>
+      </c>
+      <c r="B807" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>10</v>
+      </c>
+      <c r="B808" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>140</v>
+      </c>
+      <c r="B809" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>45</v>
+      </c>
+      <c r="B810" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>40</v>
+      </c>
+      <c r="B811" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>114</v>
+      </c>
+      <c r="B812" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>174</v>
+      </c>
+      <c r="B813" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>124</v>
+      </c>
+      <c r="B814" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>148</v>
+      </c>
+      <c r="B815" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>127</v>
+      </c>
+      <c r="B816" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>26</v>
+      </c>
+      <c r="B817" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>137</v>
+      </c>
+      <c r="B818" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>91</v>
+      </c>
+      <c r="B819" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>33</v>
+      </c>
+      <c r="B820" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>95</v>
+      </c>
+      <c r="B821" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>154</v>
+      </c>
+      <c r="B822" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>33</v>
+      </c>
+      <c r="B823" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>6</v>
+      </c>
+      <c r="B824" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>192</v>
+      </c>
+      <c r="B825" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>92</v>
+      </c>
+      <c r="B826" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>140</v>
+      </c>
+      <c r="B827" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>110</v>
+      </c>
+      <c r="B828" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>140</v>
+      </c>
+      <c r="B829" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>72</v>
+      </c>
+      <c r="B830" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>28</v>
+      </c>
+      <c r="B831" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>104</v>
+      </c>
+      <c r="B832" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>100</v>
+      </c>
+      <c r="B833" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
